--- a/processed_files/NEW TRACKER - 2023-07-16 - 2023-07-31.xlsx
+++ b/processed_files/NEW TRACKER - 2023-07-16 - 2023-07-31.xlsx
@@ -3019,69 +3019,69 @@
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Miriam Hernandez</t>
+          <t>Elli Hernandez</t>
         </is>
       </c>
       <c r="B9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1022.44</v>
+        <v>1165.76</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>40.9</v>
+        <v>46.62</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>46.62</v>
+      </c>
+      <c r="J9" t="n">
         <v>24</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Elli Hernandez</t>
+          <t>Miriam Hernandez</t>
         </is>
       </c>
       <c r="B10" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1165.76</v>
+        <v>1022.44</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>46.62</v>
+        <v>40.9</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>24</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>46.62</v>
+        <v>30.5</v>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
